--- a/6/3/2/Total transacciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/3/2/Total transacciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -2091,10 +2091,10 @@
         <v>132999</v>
       </c>
       <c r="C59">
-        <v>63430</v>
+        <v>63420</v>
       </c>
       <c r="D59">
-        <v>7329</v>
+        <v>7458</v>
       </c>
       <c r="E59">
         <v>25577</v>
@@ -2103,7 +2103,7 @@
         <v>9152</v>
       </c>
       <c r="G59">
-        <v>38199</v>
+        <v>38198</v>
       </c>
       <c r="H59">
         <v>152239</v>

--- a/6/3/2/Total transacciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/3/2/Total transacciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -2091,7 +2091,7 @@
         <v>132999</v>
       </c>
       <c r="C59">
-        <v>63420</v>
+        <v>63416</v>
       </c>
       <c r="D59">
         <v>7458</v>
@@ -2103,10 +2103,10 @@
         <v>9152</v>
       </c>
       <c r="G59">
-        <v>38198</v>
+        <v>38194</v>
       </c>
       <c r="H59">
-        <v>152239</v>
+        <v>152289</v>
       </c>
     </row>
   </sheetData>

--- a/6/3/2/Total transacciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/3/2/Total transacciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Serie</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2109,6 +2112,32 @@
         <v>152289</v>
       </c>
     </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>68219</v>
+      </c>
+      <c r="C60">
+        <v>60601</v>
+      </c>
+      <c r="D60">
+        <v>6698</v>
+      </c>
+      <c r="E60">
+        <v>17724</v>
+      </c>
+      <c r="F60">
+        <v>9559</v>
+      </c>
+      <c r="G60">
+        <v>37014</v>
+      </c>
+      <c r="H60">
+        <v>151350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
